--- a/anexos/analisis-economico/analisis-economico.xlsx
+++ b/anexos/analisis-economico/analisis-economico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\u\APMG1\Tile-Tech\anexos\analisis-economico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B7AEE-3D83-4E03-B741-68CE3E4CEEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974C0D1B-003E-437D-8654-7C595C247372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="1" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="5" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUAL" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="189">
   <si>
     <t>PRODUCCION M2</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SERVICIOS PÚBLICOS</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0.000_-;\-&quot;$&quot;\ * #,##0.000_-;_-&quot;$&quot;\ * &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +714,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1350,7 +1360,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1609,6 +1619,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1744,11 +1760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2104,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAC403C-54EA-4DB7-A3C6-5ABA5B343DBD}">
   <dimension ref="B1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E27"/>
+    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2122,14 +2134,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C2" s="95"/>
@@ -2263,12 +2275,12 @@
       <c r="C17" s="92"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
     </row>
     <row r="19" spans="2:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="79"/>
@@ -2419,12 +2431,12 @@
       <c r="I26" s="140"/>
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
       <c r="F27" s="137">
         <f>SUM(F21:F26)</f>
         <v>2339838524.1600003</v>
@@ -2433,12 +2445,12 @@
       <c r="J27" s="134"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="173" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
+      <c r="B28" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
     </row>
     <row r="29" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
@@ -2710,11 +2722,11 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
       <c r="E47" s="27">
         <f>+E46+E44+E33</f>
         <v>956878960</v>
@@ -2730,22 +2742,22 @@
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="161" t="s">
+      <c r="B50" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
     </row>
     <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
-      <c r="E51" s="174"/>
-      <c r="F51" s="174"/>
-      <c r="G51" s="174"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
     </row>
     <row r="52" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="84" t="s">
@@ -2768,7 +2780,7 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="167" t="s">
+      <c r="B53" s="171" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2791,7 +2803,7 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="168"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="6" t="s">
         <v>116</v>
       </c>
@@ -2812,7 +2824,7 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="168"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="6" t="s">
         <v>117</v>
       </c>
@@ -2833,7 +2845,7 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="168"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
@@ -2854,7 +2866,7 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="168"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="6" t="s">
         <v>119</v>
       </c>
@@ -2875,7 +2887,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="168"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="6" t="s">
         <v>120</v>
       </c>
@@ -2896,7 +2908,7 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="168"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="6" t="s">
         <v>101</v>
       </c>
@@ -2917,7 +2929,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="169"/>
+      <c r="B60" s="173"/>
       <c r="C60" s="6" t="s">
         <v>21</v>
       </c>
@@ -2936,10 +2948,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="175" t="s">
+      <c r="B61" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="176"/>
+      <c r="C61" s="180"/>
       <c r="D61" s="6">
         <v>2</v>
       </c>
@@ -2956,11 +2968,11 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="164" t="s">
+      <c r="B62" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="165"/>
-      <c r="D62" s="166"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="35">
         <v>1</v>
       </c>
@@ -2974,13 +2986,13 @@
       </c>
     </row>
     <row r="63" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="170" t="s">
+      <c r="B63" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="171"/>
-      <c r="D63" s="171"/>
-      <c r="E63" s="171"/>
-      <c r="F63" s="171"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="175"/>
+      <c r="E63" s="175"/>
+      <c r="F63" s="175"/>
       <c r="G63" s="37">
         <f>SUM(G53:G62)</f>
         <v>244296000</v>
@@ -2995,13 +3007,13 @@
       <c r="G64" s="25"/>
     </row>
     <row r="65" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B65" s="162" t="s">
+      <c r="B65" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="162"/>
-      <c r="D65" s="162"/>
-      <c r="E65" s="162"/>
-      <c r="F65" s="162"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="166"/>
+      <c r="F65" s="166"/>
       <c r="G65" s="25"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
@@ -3013,10 +3025,10 @@
       <c r="G66" s="25"/>
     </row>
     <row r="67" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="163" t="s">
+      <c r="B67" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="163"/>
+      <c r="C67" s="167"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -3049,10 +3061,10 @@
       <c r="G69" s="25"/>
     </row>
     <row r="70" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="172" t="s">
+      <c r="B70" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="172"/>
+      <c r="C70" s="176"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -3193,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2983426-E21D-4B87-859C-E536AB3C07D4}">
   <dimension ref="B2:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3217,32 +3229,32 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -3250,35 +3262,35 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
     </row>
     <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="184" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
@@ -3290,10 +3302,10 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="186" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="186"/>
       <c r="D16" s="9">
         <v>300000000</v>
       </c>
@@ -3533,10 +3545,10 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="186" t="s">
+      <c r="B30" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="186"/>
+      <c r="C30" s="190"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
@@ -3623,10 +3635,10 @@
       <c r="F40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="183" t="s">
+      <c r="G40" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="183"/>
+      <c r="H40" s="187"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="15" t="s">
@@ -3645,11 +3657,11 @@
       <c r="F41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="184">
+      <c r="G41" s="188">
         <f>+E41*12</f>
         <v>46800000</v>
       </c>
-      <c r="H41" s="184"/>
+      <c r="H41" s="188"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="15" t="s">
@@ -3663,11 +3675,11 @@
       <c r="F42" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="184">
+      <c r="G42" s="188">
         <f t="shared" ref="G42:G44" si="5">+E42*12</f>
         <v>48000000</v>
       </c>
-      <c r="H42" s="184"/>
+      <c r="H42" s="188"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="15" t="s">
@@ -3681,11 +3693,11 @@
       <c r="F43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="184">
+      <c r="G43" s="188">
         <f t="shared" si="5"/>
         <v>24000000</v>
       </c>
-      <c r="H43" s="184"/>
+      <c r="H43" s="188"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
@@ -3699,11 +3711,11 @@
       <c r="F44" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="184">
+      <c r="G44" s="188">
         <f t="shared" si="5"/>
         <v>12000000</v>
       </c>
-      <c r="H44" s="184"/>
+      <c r="H44" s="188"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="51" t="s">
@@ -3713,17 +3725,17 @@
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
-      <c r="G45" s="179">
+      <c r="G45" s="183">
         <f>SUM(G41:G44)</f>
         <v>130800000</v>
       </c>
-      <c r="H45" s="179"/>
+      <c r="H45" s="183"/>
     </row>
     <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="180"/>
+      <c r="C47" s="184"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
@@ -3734,7 +3746,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>146</v>
       </c>
@@ -3743,7 +3755,7 @@
         <v>1006202255.2435</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>147</v>
       </c>
@@ -3752,7 +3764,7 @@
         <v>260905438.96346474</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>148</v>
       </c>
@@ -3761,7 +3773,7 @@
         <v>130800000</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>21</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>1267107694.2069647</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="99" t="s">
         <v>149</v>
       </c>
@@ -3778,7 +3790,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>1647240002.4690542</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>110</v>
       </c>
@@ -3796,13 +3808,17 @@
         <v>329759997.53094578</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="19">
         <f>MROUND(C54*1.2,1000000)</f>
         <v>1977000000</v>
+      </c>
+      <c r="D56" s="163">
+        <f>C55/C56</f>
+        <v>0.16679817781029124</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +3850,7 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3848,11 +3864,11 @@
       <c r="B1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="187">
+      <c r="C1" s="191">
         <f>+PROPUESTA!C56</f>
         <v>1977000000</v>
       </c>
-      <c r="D1" s="187"/>
+      <c r="D1" s="191"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -4116,52 +4132,52 @@
       <c r="B18" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="179">
+      <c r="C18" s="183">
         <f>+C16</f>
         <v>395400000</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="183"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="179">
+      <c r="C19" s="183">
         <f>+F16</f>
         <v>395400000</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="183"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="179">
+      <c r="C20" s="183">
         <f>+H16</f>
         <v>395400000</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="183"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="179">
+      <c r="C21" s="183">
         <f>+K16</f>
         <v>593100000</v>
       </c>
-      <c r="D21" s="179"/>
+      <c r="D21" s="183"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="179">
+      <c r="C22" s="183">
         <f>+N16</f>
         <v>197700000</v>
       </c>
-      <c r="D22" s="179"/>
+      <c r="D22" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4181,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D989884-3E5C-400A-BA14-73D8C7B1295A}">
   <dimension ref="B1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4198,23 +4214,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
     </row>
     <row r="2" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
     </row>
     <row r="5" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
@@ -4346,7 +4362,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="205" t="s">
+      <c r="B13" s="160" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="76">
@@ -4456,12 +4472,12 @@
       <c r="C19" s="50"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="90" t="s">
@@ -4604,24 +4620,24 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
       <c r="F28" s="137">
         <f>SUM(F22:F27)</f>
         <v>2878001384.7168002</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="191" t="s">
+      <c r="B29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
     </row>
     <row r="30" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
@@ -4904,11 +4920,11 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="192" t="s">
+      <c r="B48" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
       <c r="E48" s="25">
         <f>+E47+E45+E34</f>
         <v>1224355480.8</v>
@@ -4918,16 +4934,16 @@
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="183"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-    </row>
-    <row r="51" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C50" s="187"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="113" t="s">
         <v>34</v>
       </c>
@@ -4948,7 +4964,7 @@
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="171" t="s">
         <v>112</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -4970,7 +4986,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="168"/>
+      <c r="B53" s="172"/>
       <c r="C53" s="6" t="s">
         <v>116</v>
       </c>
@@ -4990,7 +5006,7 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="168"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="6" t="s">
         <v>117</v>
       </c>
@@ -5010,7 +5026,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="168"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="6" t="s">
         <v>118</v>
       </c>
@@ -5030,7 +5046,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="168"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="6" t="s">
         <v>119</v>
       </c>
@@ -5050,7 +5066,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="168"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="6" t="s">
         <v>120</v>
       </c>
@@ -5070,7 +5086,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="168"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="6" t="s">
         <v>101</v>
       </c>
@@ -5090,7 +5106,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="169"/>
+      <c r="B59" s="173"/>
       <c r="C59" s="6" t="s">
         <v>21</v>
       </c>
@@ -5109,10 +5125,10 @@
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="175" t="s">
+      <c r="B60" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="176"/>
+      <c r="C60" s="180"/>
       <c r="D60" s="6">
         <v>2</v>
       </c>
@@ -5129,11 +5145,11 @@
       </c>
     </row>
     <row r="61" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="164" t="s">
+      <c r="B61" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="165"/>
-      <c r="D61" s="166"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="35">
         <v>1</v>
       </c>
@@ -5147,13 +5163,13 @@
       </c>
     </row>
     <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="170" t="s">
+      <c r="B62" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="171"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="171"/>
-      <c r="F62" s="171"/>
+      <c r="C62" s="175"/>
+      <c r="D62" s="175"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="175"/>
       <c r="G62" s="37">
         <f>SUM(G52:G61)</f>
         <v>159432000</v>
@@ -5166,24 +5182,24 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="25"/>
-      <c r="M63" s="206"/>
-      <c r="N63" s="207"/>
+      <c r="M63" s="161"/>
+      <c r="N63" s="162"/>
     </row>
     <row r="64" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="B64" s="162" t="s">
+      <c r="B64" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="162"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
-      <c r="F64" s="162"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="166"/>
+      <c r="F64" s="166"/>
       <c r="G64" s="25"/>
     </row>
     <row r="65" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="194" t="s">
+      <c r="B65" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="194"/>
+      <c r="C65" s="198"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -5234,10 +5250,10 @@
       <c r="G68" s="25"/>
     </row>
     <row r="69" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="189" t="s">
+      <c r="B69" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="189"/>
+      <c r="C69" s="193"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -5675,7 +5691,7 @@
         <f>+D10/C10-1</f>
         <v>0.70627870235200474</v>
       </c>
-      <c r="F10" s="195">
+      <c r="F10" s="199">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5695,7 +5711,7 @@
         <f t="shared" si="0"/>
         <v>0.36699753414818925</v>
       </c>
-      <c r="F11" s="196"/>
+      <c r="F11" s="200"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="105" t="s">
@@ -5713,7 +5729,7 @@
         <f t="shared" si="0"/>
         <v>-6.8574612551533964E-2</v>
       </c>
-      <c r="F12" s="197">
+      <c r="F12" s="201">
         <v>-0.1</v>
       </c>
     </row>
@@ -5733,7 +5749,7 @@
         <f t="shared" si="0"/>
         <v>-6.8574612551533853E-2</v>
       </c>
-      <c r="F13" s="198"/>
+      <c r="F13" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5753,11 +5769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADFFA1A-762C-454E-8EB2-63C69813CEF7}">
   <dimension ref="B1:AB32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5786,30 +5802,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="D1" s="199" t="s">
+      <c r="D1" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="J1" s="199" t="s">
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="J1" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="P1" s="199" t="s">
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="P1" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="W1" s="199" t="s">
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="W1" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="203"/>
     </row>
     <row r="2" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -5821,37 +5837,37 @@
       <c r="J2" s="80">
         <v>0.5</v>
       </c>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
       <c r="W2" s="112"/>
     </row>
     <row r="3" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="200"/>
+      <c r="K3" s="204"/>
       <c r="M3" s="128" t="s">
         <v>165</v>
       </c>
       <c r="N3" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
       <c r="W3" s="129" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="183"/>
+      <c r="C4" s="187"/>
       <c r="D4" s="6">
         <v>0</v>
       </c>
@@ -5929,10 +5945,10 @@
       </c>
     </row>
     <row r="5" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="204"/>
+      <c r="C5" s="208"/>
       <c r="D5" s="41">
         <v>1</v>
       </c>
@@ -6010,10 +6026,10 @@
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="182"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="26">
         <f>+INT(ACTUAL!$C$11)*D5</f>
         <v>190564</v>
@@ -6116,10 +6132,10 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="202"/>
+      <c r="C7" s="206"/>
       <c r="D7" s="108">
         <f>+ACTUAL!C16</f>
         <v>5399800560</v>
@@ -6222,7 +6238,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="205" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -6330,7 +6346,7 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B9" s="201"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -6436,7 +6452,7 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B10" s="201"/>
+      <c r="B10" s="205"/>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
@@ -6542,7 +6558,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="201"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
@@ -6648,7 +6664,7 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" s="201"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
@@ -6754,7 +6770,7 @@
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="201"/>
+      <c r="B13" s="205"/>
       <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
@@ -6860,7 +6876,7 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B14" s="201"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="110" t="s">
         <v>13</v>
       </c>
@@ -8004,7 +8020,7 @@
       <c r="C31" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="209">
         <f>+D27</f>
         <v>-395400000</v>
       </c>

--- a/anexos/analisis-economico/analisis-economico.xlsx
+++ b/anexos/analisis-economico/analisis-economico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\u\APMG1\Tile-Tech\anexos\analisis-economico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9DAC7-7607-45C7-8F47-3DB7BBC726C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65649EE6-E4FC-42E0-AB18-32DFA2125021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="5" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" activeTab="1" xr2:uid="{F88F103A-AD35-45C9-9307-C4B5E54861C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUAL" sheetId="2" r:id="rId1"/>
@@ -1734,7 +1734,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2081,241 +2081,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2326,31 +2099,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2358,12 +2110,258 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2730,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAC403C-54EA-4DB7-A3C6-5ABA5B343DBD}">
   <dimension ref="B1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E58"/>
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,14 +2745,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C2" s="85"/>
@@ -2796,10 +2794,7 @@
       <c r="D7" s="52">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="F7" s="110">
-        <f>1-D7</f>
-        <v>0.96130000000000004</v>
-      </c>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="71" t="s">
@@ -2838,38 +2833,38 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="251" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="235" t="s">
+      <c r="C16" s="251" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
     </row>
@@ -2893,10 +2888,10 @@
       <c r="G18" s="152"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="255" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="255"/>
       <c r="E19" s="175">
         <f>SUM(E20:E22)</f>
         <v>161959.67999999999</v>
@@ -2974,10 +2969,10 @@
     </row>
     <row r="23" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
-      <c r="C23" s="239" t="s">
+      <c r="C23" s="255" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="255"/>
       <c r="E23" s="175">
         <f>SUM(E24:E26)</f>
         <v>28581.119999999995</v>
@@ -3051,12 +3046,12 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="238"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="254"/>
       <c r="F27" s="10">
         <f>SUM(F20:F22)+SUM(F24:F26)</f>
         <v>5977264895.999999</v>
@@ -3067,12 +3062,12 @@
       <c r="C28" s="82"/>
     </row>
     <row r="29" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="240"/>
     </row>
     <row r="30" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="69"/>
@@ -3191,23 +3186,23 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="217" t="s">
+      <c r="B38" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="219"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="259"/>
       <c r="E38" s="26">
         <f>SUM(E32:E37)</f>
         <v>2339838299</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="221" t="s">
+      <c r="B39" s="260" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="221"/>
-      <c r="D39" s="221"/>
-      <c r="E39" s="221"/>
+      <c r="C39" s="260"/>
+      <c r="D39" s="260"/>
+      <c r="E39" s="260"/>
     </row>
     <row r="40" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="21" t="s">
@@ -3477,11 +3472,11 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="260" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
+      <c r="C58" s="260"/>
+      <c r="D58" s="260"/>
       <c r="E58" s="28">
         <f>+E57+E55+E44</f>
         <v>956878960</v>
@@ -3497,22 +3492,22 @@
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="220" t="s">
+      <c r="B61" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="240"/>
+      <c r="D61" s="240"/>
+      <c r="E61" s="240"/>
     </row>
     <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="221"/>
-      <c r="D62" s="221"/>
-      <c r="E62" s="221"/>
-      <c r="F62" s="221"/>
-      <c r="G62" s="221"/>
+      <c r="C62" s="260"/>
+      <c r="D62" s="260"/>
+      <c r="E62" s="260"/>
+      <c r="F62" s="260"/>
+      <c r="G62" s="260"/>
     </row>
     <row r="63" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" s="73" t="s">
@@ -3535,7 +3530,7 @@
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="230" t="s">
+      <c r="B64" s="246" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -3558,7 +3553,7 @@
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="231"/>
+      <c r="B65" s="247"/>
       <c r="C65" s="6" t="s">
         <v>107</v>
       </c>
@@ -3579,7 +3574,7 @@
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="231"/>
+      <c r="B66" s="247"/>
       <c r="C66" s="6" t="s">
         <v>108</v>
       </c>
@@ -3600,7 +3595,7 @@
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="231"/>
+      <c r="B67" s="247"/>
       <c r="C67" s="6" t="s">
         <v>109</v>
       </c>
@@ -3621,7 +3616,7 @@
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="231"/>
+      <c r="B68" s="247"/>
       <c r="C68" s="6" t="s">
         <v>110</v>
       </c>
@@ -3642,7 +3637,7 @@
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="231"/>
+      <c r="B69" s="247"/>
       <c r="C69" s="6" t="s">
         <v>111</v>
       </c>
@@ -3663,7 +3658,7 @@
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="231"/>
+      <c r="B70" s="247"/>
       <c r="C70" s="6" t="s">
         <v>92</v>
       </c>
@@ -3684,7 +3679,7 @@
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="232"/>
+      <c r="B71" s="248"/>
       <c r="C71" s="6" t="s">
         <v>22</v>
       </c>
@@ -3703,10 +3698,10 @@
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="222" t="s">
+      <c r="B72" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="223"/>
+      <c r="C72" s="262"/>
       <c r="D72" s="6">
         <v>2</v>
       </c>
@@ -3723,11 +3718,11 @@
       </c>
     </row>
     <row r="73" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="227" t="s">
+      <c r="B73" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="228"/>
-      <c r="D73" s="229"/>
+      <c r="C73" s="244"/>
+      <c r="D73" s="245"/>
       <c r="E73" s="36">
         <v>1</v>
       </c>
@@ -3741,13 +3736,13 @@
       </c>
     </row>
     <row r="74" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="233" t="s">
+      <c r="B74" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="234"/>
-      <c r="D74" s="234"/>
-      <c r="E74" s="234"/>
-      <c r="F74" s="234"/>
+      <c r="C74" s="250"/>
+      <c r="D74" s="250"/>
+      <c r="E74" s="250"/>
+      <c r="F74" s="250"/>
       <c r="G74" s="38">
         <f>SUM(G64:G73)</f>
         <v>244296000</v>
@@ -3765,13 +3760,13 @@
       </c>
     </row>
     <row r="76" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B76" s="225" t="s">
+      <c r="B76" s="241" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="225"/>
-      <c r="D76" s="225"/>
-      <c r="E76" s="225"/>
-      <c r="F76" s="225"/>
+      <c r="C76" s="241"/>
+      <c r="D76" s="241"/>
+      <c r="E76" s="241"/>
+      <c r="F76" s="241"/>
       <c r="G76" s="25"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
@@ -3783,10 +3778,10 @@
       <c r="G77" s="25"/>
     </row>
     <row r="78" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="226" t="s">
+      <c r="B78" s="242" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="226"/>
+      <c r="C78" s="242"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -3819,10 +3814,10 @@
       <c r="G80" s="25"/>
     </row>
     <row r="81" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="216" t="s">
+      <c r="B81" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="216"/>
+      <c r="C81" s="256"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3938,7 +3933,7 @@
         <v>956.62084136128453</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="22" t="s">
         <v>167</v>
       </c>
@@ -3949,6 +3944,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B62:G62"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B76:F76"/>
@@ -3963,13 +3965,6 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B62:G62"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3987,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2983426-E21D-4B87-859C-E536AB3C07D4}">
   <dimension ref="A2:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,32 +4009,32 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="274"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -4047,42 +4042,42 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="241" t="s">
+      <c r="B11" s="272" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
     </row>
     <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="249" t="s">
+      <c r="B12" s="264" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="239"/>
+      <c r="G14" s="239"/>
+      <c r="H14" s="239"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="323" t="s">
+      <c r="B15" s="269" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="282"/>
-      <c r="D15" s="282"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4307,19 +4302,19 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="250" t="s">
+      <c r="B31" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="250"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="10">
         <f>SUM(D17:D30)</f>
         <v>300000000</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="247"/>
-      <c r="G31" s="247"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="247"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="278"/>
+      <c r="H31" s="278"/>
+      <c r="I31" s="278"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="87"/>
@@ -4366,7 +4361,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="240" t="s">
+      <c r="A36" s="271" t="s">
         <v>229</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -4398,7 +4393,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="240"/>
+      <c r="A37" s="271"/>
       <c r="B37" s="44" t="s">
         <v>226</v>
       </c>
@@ -4428,7 +4423,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="240"/>
+      <c r="A38" s="271"/>
       <c r="B38" s="44" t="s">
         <v>227</v>
       </c>
@@ -4458,7 +4453,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="240"/>
+      <c r="A39" s="271"/>
       <c r="B39" s="151" t="s">
         <v>203</v>
       </c>
@@ -4486,7 +4481,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="240"/>
+      <c r="A40" s="271"/>
       <c r="B40" s="151" t="s">
         <v>205</v>
       </c>
@@ -4514,7 +4509,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="240"/>
+      <c r="A41" s="271"/>
       <c r="B41" s="151" t="s">
         <v>207</v>
       </c>
@@ -4542,7 +4537,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="240"/>
+      <c r="A42" s="271"/>
       <c r="B42" s="151" t="s">
         <v>207</v>
       </c>
@@ -4570,7 +4565,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="240"/>
+      <c r="A43" s="271"/>
       <c r="B43" s="151" t="s">
         <v>210</v>
       </c>
@@ -4598,7 +4593,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="240"/>
+      <c r="A44" s="271"/>
       <c r="B44" s="151" t="s">
         <v>212</v>
       </c>
@@ -4626,7 +4621,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="240"/>
+      <c r="A45" s="271"/>
       <c r="B45" s="151" t="s">
         <v>213</v>
       </c>
@@ -4654,7 +4649,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="240"/>
+      <c r="A46" s="271"/>
       <c r="B46" s="151" t="s">
         <v>215</v>
       </c>
@@ -4682,7 +4677,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="240"/>
+      <c r="A47" s="271"/>
       <c r="B47" s="151" t="s">
         <v>217</v>
       </c>
@@ -4710,7 +4705,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="240"/>
+      <c r="A48" s="271"/>
       <c r="B48" s="151" t="s">
         <v>219</v>
       </c>
@@ -4845,12 +4840,12 @@
       <c r="B53" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="244"/>
-      <c r="D53" s="245"/>
-      <c r="E53" s="245"/>
-      <c r="F53" s="245"/>
-      <c r="G53" s="245"/>
-      <c r="H53" s="246"/>
+      <c r="C53" s="275"/>
+      <c r="D53" s="276"/>
+      <c r="E53" s="276"/>
+      <c r="F53" s="276"/>
+      <c r="G53" s="276"/>
+      <c r="H53" s="277"/>
       <c r="I53" s="211">
         <f>SUM(I36:I50)</f>
         <v>1001646347.3835001</v>
@@ -4869,10 +4864,10 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="242" t="s">
+      <c r="B55" s="273" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="242"/>
+      <c r="C55" s="273"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
@@ -4958,10 +4953,10 @@
       <c r="F65" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="252" t="s">
+      <c r="G65" s="267" t="s">
         <v>63</v>
       </c>
-      <c r="H65" s="252"/>
+      <c r="H65" s="267"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="172" t="s">
@@ -4980,11 +4975,11 @@
       <c r="F66" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="253">
+      <c r="G66" s="268">
         <f>+E66*12</f>
         <v>46800000</v>
       </c>
-      <c r="H66" s="253"/>
+      <c r="H66" s="268"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="15" t="s">
@@ -4998,11 +4993,11 @@
       <c r="F67" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G67" s="253">
+      <c r="G67" s="268">
         <f t="shared" ref="G67:G69" si="7">+E67*12</f>
         <v>48000000</v>
       </c>
-      <c r="H67" s="253"/>
+      <c r="H67" s="268"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="15" t="s">
@@ -5016,11 +5011,11 @@
       <c r="F68" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="253">
+      <c r="G68" s="268">
         <f t="shared" si="7"/>
         <v>24000000</v>
       </c>
-      <c r="H68" s="253"/>
+      <c r="H68" s="268"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="15" t="s">
@@ -5034,11 +5029,11 @@
       <c r="F69" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="253">
+      <c r="G69" s="268">
         <f t="shared" si="7"/>
         <v>12000000</v>
       </c>
-      <c r="H69" s="253"/>
+      <c r="H69" s="268"/>
     </row>
     <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B70" s="209" t="s">
@@ -5048,17 +5043,17 @@
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="50"/>
-      <c r="G70" s="248">
+      <c r="G70" s="263">
         <f>SUM(G66:G69)</f>
         <v>130800000</v>
       </c>
-      <c r="H70" s="248"/>
+      <c r="H70" s="263"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="251" t="s">
+      <c r="B72" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="251"/>
+      <c r="C72" s="266"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
@@ -5142,6 +5137,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="G70:H70"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B14:H14"/>
@@ -5153,16 +5158,6 @@
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A36:A48"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5173,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D989884-3E5C-400A-BA14-73D8C7B1295A}">
   <dimension ref="B1:R94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:E57"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5192,23 +5187,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="239" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
     </row>
     <row r="2" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="279" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
     </row>
     <row r="3" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D3" s="22" t="s">
@@ -5368,41 +5363,41 @@
     </row>
     <row r="12" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="251" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="M15" s="40"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="235" t="s">
+      <c r="C16" s="251" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="M16" s="40"/>
@@ -5432,10 +5427,10 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="255" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="255"/>
       <c r="E19" s="158">
         <f>SUM(E20:E22)</f>
         <v>202181.92686719997</v>
@@ -5536,10 +5531,10 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
-      <c r="C23" s="239" t="s">
+      <c r="C23" s="255" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="255"/>
       <c r="E23" s="158">
         <f>SUM(E24:E26)</f>
         <v>35679.163564800001</v>
@@ -5642,12 +5637,12 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="238"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="254"/>
       <c r="F27" s="10">
         <f>SUM(F20:F22)+SUM(F24:F26)</f>
         <v>5977264895.999999</v>
@@ -5660,22 +5655,18 @@
         <f t="shared" si="1"/>
         <v>0.24834728536880313</v>
       </c>
-      <c r="L27">
-        <f>G27/F27</f>
-        <v>1.2483472853688031</v>
-      </c>
     </row>
     <row r="28" spans="2:18" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="51"/>
       <c r="C28" s="47"/>
     </row>
     <row r="29" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="255" t="s">
+      <c r="B29" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="255"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="255"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="281"/>
+      <c r="E29" s="281"/>
       <c r="R29" s="120"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
@@ -5789,23 +5780,23 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="256" t="s">
+      <c r="B37" s="282" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="257"/>
-      <c r="D37" s="258"/>
+      <c r="C37" s="283"/>
+      <c r="D37" s="284"/>
       <c r="E37" s="207">
         <f>SUM(E31:E36)</f>
         <v>2896623122.1700001</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="259" t="s">
+      <c r="B38" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="261"/>
+      <c r="C38" s="286"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="287"/>
     </row>
     <row r="39" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="202" t="s">
@@ -6088,11 +6079,11 @@
       </c>
     </row>
     <row r="57" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="262" t="s">
+      <c r="B57" s="288" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="263"/>
-      <c r="D57" s="263"/>
+      <c r="C57" s="289"/>
+      <c r="D57" s="289"/>
       <c r="E57" s="206">
         <f>+E56+E54+E43</f>
         <v>1224355480.8</v>
@@ -6102,14 +6093,14 @@
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="264" t="s">
+      <c r="B59" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="265"/>
-      <c r="D59" s="265"/>
-      <c r="E59" s="265"/>
-      <c r="F59" s="265"/>
-      <c r="G59" s="266"/>
+      <c r="C59" s="291"/>
+      <c r="D59" s="291"/>
+      <c r="E59" s="291"/>
+      <c r="F59" s="291"/>
+      <c r="G59" s="292"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="73" t="s">
@@ -6132,7 +6123,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="230" t="s">
+      <c r="B61" s="246" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -6154,7 +6145,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="231"/>
+      <c r="B62" s="247"/>
       <c r="C62" s="6" t="s">
         <v>107</v>
       </c>
@@ -6174,7 +6165,7 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="231"/>
+      <c r="B63" s="247"/>
       <c r="C63" s="6" t="s">
         <v>108</v>
       </c>
@@ -6194,7 +6185,7 @@
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="231"/>
+      <c r="B64" s="247"/>
       <c r="C64" s="6" t="s">
         <v>109</v>
       </c>
@@ -6214,7 +6205,7 @@
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="231"/>
+      <c r="B65" s="247"/>
       <c r="C65" s="6" t="s">
         <v>110</v>
       </c>
@@ -6234,7 +6225,7 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="231"/>
+      <c r="B66" s="247"/>
       <c r="C66" s="6" t="s">
         <v>111</v>
       </c>
@@ -6254,7 +6245,7 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="231"/>
+      <c r="B67" s="247"/>
       <c r="C67" s="6" t="s">
         <v>92</v>
       </c>
@@ -6274,7 +6265,7 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="232"/>
+      <c r="B68" s="248"/>
       <c r="C68" s="6" t="s">
         <v>22</v>
       </c>
@@ -6293,10 +6284,10 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="222" t="s">
+      <c r="B69" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="223"/>
+      <c r="C69" s="262"/>
       <c r="D69" s="6">
         <v>2</v>
       </c>
@@ -6313,11 +6304,11 @@
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="227" t="s">
+      <c r="B70" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="228"/>
-      <c r="D70" s="229"/>
+      <c r="C70" s="244"/>
+      <c r="D70" s="245"/>
       <c r="E70" s="36">
         <v>1</v>
       </c>
@@ -6331,13 +6322,13 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="233" t="s">
+      <c r="B71" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="234"/>
-      <c r="D71" s="234"/>
-      <c r="E71" s="234"/>
-      <c r="F71" s="234"/>
+      <c r="C71" s="250"/>
+      <c r="D71" s="250"/>
+      <c r="E71" s="250"/>
+      <c r="F71" s="250"/>
       <c r="G71" s="201">
         <f>SUM(G61:G70)</f>
         <v>159432000</v>
@@ -6352,20 +6343,20 @@
       <c r="G72" s="25"/>
     </row>
     <row r="73" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B73" s="225" t="s">
+      <c r="B73" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="225"/>
-      <c r="D73" s="225"/>
-      <c r="E73" s="225"/>
-      <c r="F73" s="225"/>
+      <c r="C73" s="241"/>
+      <c r="D73" s="241"/>
+      <c r="E73" s="241"/>
+      <c r="F73" s="241"/>
       <c r="G73" s="25"/>
     </row>
     <row r="74" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="267" t="s">
+      <c r="B74" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="267"/>
+      <c r="C74" s="293"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -6416,10 +6407,10 @@
       <c r="G77" s="25"/>
     </row>
     <row r="78" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="254" t="s">
+      <c r="B78" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="254"/>
+      <c r="C78" s="280"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -6672,6 +6663,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:F71"/>
@@ -6683,16 +6684,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:F73"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6705,7 +6696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82427467-5815-40A1-9C36-A2B9B0031BBD}">
-  <dimension ref="B5:U51"/>
+  <dimension ref="B5:T51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G29" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
@@ -6729,34 +6720,34 @@
   <sheetData>
     <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="292" t="s">
+      <c r="B6" s="304" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="291"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
-      <c r="J6" s="291"/>
-      <c r="K6" s="293"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="306"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="286"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="294" t="s">
+      <c r="B7" s="298"/>
+      <c r="C7" s="308"/>
+      <c r="D7" s="307" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="289" t="s">
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="219" t="s">
         <v>259</v>
       </c>
-      <c r="I7" s="289"/>
-      <c r="J7" s="289"/>
-      <c r="K7" s="290"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="220"/>
     </row>
     <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="73" t="s">
@@ -6791,7 +6782,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="246" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -6828,7 +6819,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="231"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="6" t="s">
         <v>107</v>
       </c>
@@ -6863,7 +6854,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="231"/>
+      <c r="B11" s="247"/>
       <c r="C11" s="6" t="s">
         <v>108</v>
       </c>
@@ -6898,7 +6889,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="231"/>
+      <c r="B12" s="247"/>
       <c r="C12" s="6" t="s">
         <v>109</v>
       </c>
@@ -6933,7 +6924,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="231"/>
+      <c r="B13" s="247"/>
       <c r="C13" s="6" t="s">
         <v>110</v>
       </c>
@@ -6968,79 +6959,79 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="231"/>
-      <c r="C14" s="283" t="s">
+      <c r="B14" s="247"/>
+      <c r="C14" s="216" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="283">
+      <c r="D14" s="216">
         <v>4</v>
       </c>
-      <c r="E14" s="283">
+      <c r="E14" s="216">
         <f t="shared" ref="E14:E15" si="5">4*D14</f>
         <v>16</v>
       </c>
-      <c r="F14" s="284">
+      <c r="F14" s="217">
         <f t="shared" si="0"/>
         <v>2652000</v>
       </c>
-      <c r="G14" s="285">
+      <c r="G14" s="218">
         <f t="shared" si="1"/>
         <v>42432000</v>
       </c>
-      <c r="H14" s="283">
+      <c r="H14" s="216">
         <v>1</v>
       </c>
-      <c r="I14" s="283">
+      <c r="I14" s="216">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J14" s="284">
+      <c r="J14" s="217">
         <f t="shared" si="2"/>
         <v>2652000</v>
       </c>
-      <c r="K14" s="285">
+      <c r="K14" s="218">
         <f t="shared" si="3"/>
         <v>10608000</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="231"/>
-      <c r="C15" s="283" t="s">
+      <c r="B15" s="247"/>
+      <c r="C15" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="283">
+      <c r="D15" s="216">
         <v>6</v>
       </c>
-      <c r="E15" s="283">
+      <c r="E15" s="216">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="F15" s="284">
+      <c r="F15" s="217">
         <f t="shared" si="0"/>
         <v>2652000</v>
       </c>
-      <c r="G15" s="285">
+      <c r="G15" s="218">
         <f t="shared" si="1"/>
         <v>63648000</v>
       </c>
-      <c r="H15" s="283">
+      <c r="H15" s="216">
         <v>1</v>
       </c>
-      <c r="I15" s="283">
+      <c r="I15" s="216">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J15" s="284">
+      <c r="J15" s="217">
         <f t="shared" si="2"/>
         <v>2652000</v>
       </c>
-      <c r="K15" s="285">
+      <c r="K15" s="218">
         <f t="shared" si="3"/>
         <v>10608000</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="232"/>
+      <c r="B16" s="248"/>
       <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
@@ -7071,11 +7062,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="222" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="223"/>
+      <c r="C17" s="262"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
@@ -7105,12 +7096,12 @@
         <v>63648000</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="227" t="s">
+    <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="243" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="245"/>
       <c r="E18" s="36">
         <v>1</v>
       </c>
@@ -7135,14 +7126,14 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="233" t="s">
+    <row r="19" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="250"/>
+      <c r="F19" s="250"/>
       <c r="G19" s="201">
         <f>SUM(G9:G18)</f>
         <v>244296000</v>
@@ -7155,61 +7146,61 @@
         <v>159432000</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O21" s="301" t="s">
+    <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="302" t="s">
+      <c r="P21" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="Q21" s="303" t="s">
+      <c r="Q21" s="226" t="s">
         <v>81</v>
       </c>
-      <c r="R21" s="304" t="s">
+      <c r="R21" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="303" t="s">
+      <c r="S21" s="226" t="s">
         <v>81</v>
       </c>
-      <c r="T21" s="304" t="s">
+      <c r="T21" s="227" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O22" s="307"/>
-      <c r="P22" s="311"/>
-      <c r="Q22" s="310" t="s">
+    <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="296"/>
+      <c r="P22" s="297"/>
+      <c r="Q22" s="303" t="s">
         <v>257</v>
       </c>
-      <c r="R22" s="308"/>
-      <c r="S22" s="309" t="s">
+      <c r="R22" s="295"/>
+      <c r="S22" s="294" t="s">
         <v>258</v>
       </c>
-      <c r="T22" s="308"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="T22" s="295"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="O23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="305">
+      <c r="P23" s="228">
         <v>844</v>
       </c>
       <c r="Q23" s="117">
         <v>1353024</v>
       </c>
-      <c r="R23" s="306">
+      <c r="R23" s="229">
         <f>+Q23*P23</f>
         <v>1141952256</v>
       </c>
       <c r="S23" s="117">
         <v>1664219.52</v>
       </c>
-      <c r="T23" s="306">
+      <c r="T23" s="229">
         <v>1404601274.8800001</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G24">
         <f>K19/G19-1</f>
         <v>-0.34738186462324394</v>
@@ -7234,7 +7225,7 @@
         <v>615761222.39999998</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="O25" s="11" t="s">
         <v>18</v>
       </c>
@@ -7255,7 +7246,7 @@
         <v>313039537.46999997</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="O26" s="11" t="s">
         <v>19</v>
       </c>
@@ -7276,7 +7267,7 @@
         <v>246503726.82000002</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="O27" s="11" t="s">
         <v>20</v>
       </c>
@@ -7297,7 +7288,7 @@
         <v>89867367</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="O28" s="11" t="s">
         <v>21</v>
       </c>
@@ -7318,74 +7309,67 @@
         <v>226849993.60000002</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M29">
         <f>T29/R29</f>
         <v>1.2379586757802703</v>
       </c>
-      <c r="O29" s="296" t="s">
+      <c r="O29" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="297"/>
-      <c r="Q29" s="297"/>
+      <c r="P29" s="222"/>
+      <c r="Q29" s="222"/>
       <c r="R29" s="207">
         <f>SUM(R23:R28)</f>
         <v>2339838299</v>
       </c>
-      <c r="S29" s="298"/>
+      <c r="S29" s="223"/>
       <c r="T29" s="207">
         <v>2896623122.1700001</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N30" s="300"/>
-      <c r="O30" s="299"/>
-      <c r="P30" s="299"/>
-      <c r="Q30" s="299"/>
-      <c r="R30" s="299"/>
-      <c r="S30" s="299"/>
+    <row r="30" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="82"/>
-      <c r="U30" s="300"/>
-    </row>
-    <row r="31" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O31" s="286" t="s">
+    </row>
+    <row r="31" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="298" t="s">
         <v>246</v>
       </c>
-      <c r="P31" s="287"/>
-      <c r="Q31" s="287"/>
-      <c r="R31" s="287"/>
-      <c r="S31" s="287"/>
-      <c r="T31" s="288"/>
-    </row>
-    <row r="32" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O32" s="314"/>
-      <c r="P32" s="315"/>
-      <c r="Q32" s="286" t="s">
+      <c r="P31" s="300"/>
+      <c r="Q31" s="300"/>
+      <c r="R31" s="300"/>
+      <c r="S31" s="300"/>
+      <c r="T31" s="299"/>
+    </row>
+    <row r="32" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="301"/>
+      <c r="P32" s="302"/>
+      <c r="Q32" s="298" t="s">
         <v>257</v>
       </c>
-      <c r="R32" s="288"/>
-      <c r="S32" s="286" t="s">
+      <c r="R32" s="299"/>
+      <c r="S32" s="298" t="s">
         <v>258</v>
       </c>
-      <c r="T32" s="288"/>
+      <c r="T32" s="299"/>
     </row>
     <row r="33" spans="15:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="O33" s="313" t="s">
+      <c r="O33" s="231" t="s">
         <v>25</v>
       </c>
       <c r="P33" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Q33" s="316" t="s">
+      <c r="Q33" s="232" t="s">
         <v>27</v>
       </c>
       <c r="R33" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="S33" s="316" t="s">
+      <c r="S33" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="317" t="s">
+      <c r="T33" s="233" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7724,16 +7708,16 @@
       </c>
     </row>
     <row r="50" spans="13:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O50" s="322" t="s">
+      <c r="O50" s="238" t="s">
         <v>88</v>
       </c>
-      <c r="P50" s="318">
+      <c r="P50" s="234">
         <v>28.7</v>
       </c>
-      <c r="Q50" s="318">
+      <c r="Q50" s="234">
         <v>86400</v>
       </c>
-      <c r="R50" s="320">
+      <c r="R50" s="236">
         <f t="shared" si="8"/>
         <v>2479680</v>
       </c>
@@ -7749,22 +7733,29 @@
         <f>T51/R51</f>
         <v>1.2795301516505284</v>
       </c>
-      <c r="O51" s="286" t="s">
+      <c r="O51" s="298" t="s">
         <v>117</v>
       </c>
-      <c r="P51" s="288"/>
-      <c r="Q51" s="319"/>
-      <c r="R51" s="321">
+      <c r="P51" s="299"/>
+      <c r="Q51" s="235"/>
+      <c r="R51" s="237">
         <f>+R50+R48+R37</f>
         <v>956878960</v>
       </c>
-      <c r="S51" s="312"/>
+      <c r="S51" s="230"/>
       <c r="T51" s="206">
         <v>1224355480.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O51:P51"/>
@@ -7773,13 +7764,6 @@
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7804,11 +7788,11 @@
       <c r="B1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="270">
+      <c r="C1" s="310">
         <f>+PROPUESTA!C81</f>
         <v>1963000000</v>
       </c>
-      <c r="D1" s="270"/>
+      <c r="D1" s="310"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -8072,52 +8056,52 @@
       <c r="B18" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="269">
+      <c r="C18" s="309">
         <f>+C16</f>
         <v>392600000</v>
       </c>
-      <c r="D18" s="269"/>
+      <c r="D18" s="309"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="269">
+      <c r="C19" s="309">
         <f>+F16</f>
         <v>392600000</v>
       </c>
-      <c r="D19" s="269"/>
+      <c r="D19" s="309"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="269">
+      <c r="C20" s="309">
         <f>+H16</f>
         <v>392600000</v>
       </c>
-      <c r="D20" s="269"/>
+      <c r="D20" s="309"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="269">
+      <c r="C21" s="309">
         <f>+K16</f>
         <v>588900000</v>
       </c>
-      <c r="D21" s="269"/>
+      <c r="D21" s="309"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="269">
+      <c r="C22" s="309">
         <f>+N16</f>
         <v>196300000</v>
       </c>
-      <c r="D22" s="269"/>
+      <c r="D22" s="309"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8137,7 +8121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADFFA1A-762C-454E-8EB2-63C69813CEF7}">
   <dimension ref="B1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -8170,30 +8154,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="D1" s="279" t="s">
+      <c r="D1" s="311" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="J1" s="279" t="s">
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="J1" s="311" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="P1" s="279" t="s">
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="P1" s="311" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="W1" s="279" t="s">
+      <c r="Q1" s="311"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="311"/>
+      <c r="W1" s="311" t="s">
         <v>149</v>
       </c>
-      <c r="X1" s="279"/>
-      <c r="Y1" s="279"/>
-      <c r="Z1" s="279"/>
+      <c r="X1" s="311"/>
+      <c r="Y1" s="311"/>
+      <c r="Z1" s="311"/>
     </row>
     <row r="2" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -8205,38 +8189,38 @@
       <c r="J2" s="70">
         <v>0.5</v>
       </c>
-      <c r="M2" s="243" t="s">
+      <c r="M2" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="274"/>
       <c r="W2" s="97"/>
     </row>
     <row r="3" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="J3" s="273" t="s">
+      <c r="J3" s="314" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="273"/>
+      <c r="K3" s="314"/>
       <c r="M3" s="107" t="s">
         <v>153</v>
       </c>
       <c r="N3" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="314"/>
       <c r="W3" s="108"/>
       <c r="Z3" s="108" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="252"/>
+      <c r="C4" s="267"/>
       <c r="D4" s="6">
         <v>0</v>
       </c>
@@ -8314,10 +8298,10 @@
       </c>
     </row>
     <row r="5" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="277" t="s">
+      <c r="B5" s="318" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="278"/>
+      <c r="C5" s="319"/>
       <c r="D5" s="43">
         <v>1</v>
       </c>
@@ -8408,10 +8392,10 @@
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="317" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="276"/>
+      <c r="C6" s="317"/>
       <c r="D6" s="27">
         <f>+INT('POSTERIOR PROYECTO'!$D$11)*D5</f>
         <v>190540</v>
@@ -8514,10 +8498,10 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="275" t="s">
+      <c r="B7" s="316" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="275"/>
+      <c r="C7" s="316"/>
       <c r="D7" s="93">
         <f>'POSTERIOR PROYECTO'!$C$76*D5</f>
         <v>5977264895.999999</v>
@@ -8620,7 +8604,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B8" s="274" t="s">
+      <c r="B8" s="315" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -8728,7 +8712,7 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B9" s="274"/>
+      <c r="B9" s="315"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -8834,7 +8818,7 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B10" s="274"/>
+      <c r="B10" s="315"/>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
@@ -8940,7 +8924,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="274"/>
+      <c r="B11" s="315"/>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
@@ -9046,7 +9030,7 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" s="274"/>
+      <c r="B12" s="315"/>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
@@ -9152,7 +9136,7 @@
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="274"/>
+      <c r="B13" s="315"/>
       <c r="C13" s="6" t="s">
         <v>77</v>
       </c>
@@ -9258,7 +9242,7 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B14" s="274"/>
+      <c r="B14" s="315"/>
       <c r="C14" s="95" t="s">
         <v>13</v>
       </c>
@@ -10067,7 +10051,7 @@
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="2:28" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="271" t="s">
+      <c r="B25" s="312" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="92" t="s">
@@ -10175,7 +10159,7 @@
       </c>
     </row>
     <row r="26" spans="2:28" ht="18" x14ac:dyDescent="0.35">
-      <c r="B26" s="272"/>
+      <c r="B26" s="313"/>
       <c r="C26" s="92" t="s">
         <v>159</v>
       </c>
@@ -10518,11 +10502,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="M2:O2"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="O3:P3"/>
@@ -10531,6 +10510,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:P17">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
@@ -10945,7 +10929,7 @@
         <f t="shared" si="0"/>
         <v>0.51014839316405269</v>
       </c>
-      <c r="F23" s="280">
+      <c r="F23" s="320">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -10965,7 +10949,7 @@
         <f t="shared" si="0"/>
         <v>0.20971816966614787</v>
       </c>
-      <c r="F24" s="280"/>
+      <c r="F24" s="320"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
@@ -10983,7 +10967,7 @@
         <f t="shared" ref="E25:E26" si="1">+D25/C25-1</f>
         <v>-6.5369250468469198E-2</v>
       </c>
-      <c r="F25" s="280">
+      <c r="F25" s="320">
         <v>-0.1</v>
       </c>
     </row>
@@ -11003,7 +10987,7 @@
         <f t="shared" si="1"/>
         <v>-6.5369250468469309E-2</v>
       </c>
-      <c r="F26" s="281"/>
+      <c r="F26" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11304,18 +11288,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11522,6 +11506,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBD61DB-D121-4C41-A471-4418FD648C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97BE4D35-E99D-4190-8343-7F975521DD37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -11534,14 +11526,6 @@
     <ds:schemaRef ds:uri="7bb47a53-d0be-4ae6-b388-d820c34db808"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBD61DB-D121-4C41-A471-4418FD648C5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
